--- a/static/paper/APD08_paper.xlsx
+++ b/static/paper/APD08_paper.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\SnowBall\paper_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C23656-0D9E-4788-A85F-CF57B5D58745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ED19E4-CF79-4FFF-928A-F77886854FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5E3EE22-C542-4402-8654-7D4EE4676255}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Population" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="AICPA">#REF!</definedName>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Prior year control testing documentation rolled forward for reference purposes.</t>
   </si>
@@ -139,11 +140,43 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>최소자리</t>
+    <t>승인여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전승인여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청자ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>복잡성</t>
+    <t>요청자명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청자 부서명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인자ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인일자</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근권한ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한부여일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 요청서 번호</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,9 +275,26 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="0"/>
+      <name val="굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="1"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -254,7 +304,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,13 +553,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -540,6 +599,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -552,11 +614,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -579,6 +645,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -922,10 +992,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:O31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -933,81 +1003,705 @@
     <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
     <col min="3" max="4" width="15.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2"/>
-    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2"/>
+    <col min="5" max="12" width="20.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="9.140625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="2:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="2:7" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+    </row>
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="L4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="M4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="N4" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="str">
+        <f>IF(J5="", "X", "O")</f>
+        <v>X</v>
+      </c>
+      <c r="L5" s="6" t="e">
+        <f>IF(J5-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="str">
+        <f>IF(J6="", "X", "O")</f>
+        <v>X</v>
+      </c>
+      <c r="L6" s="6" t="e">
+        <f>IF(J6-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="str">
+        <f t="shared" ref="K7:K29" si="0">IF(J7="", "X", "O")</f>
+        <v>X</v>
+      </c>
+      <c r="L7" s="6" t="e">
+        <f>IF(J7-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L8" s="6" t="e">
+        <f>IF(J8-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L9" s="6" t="e">
+        <f>IF(J9-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L10" s="6" t="e">
+        <f>IF(J10-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L11" s="6" t="e">
+        <f>IF(J11-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L12" s="6" t="e">
+        <f>IF(J12-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L13" s="6" t="e">
+        <f>IF(J13-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L14" s="6" t="e">
+        <f>IF(J14-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L15" s="6" t="e">
+        <f>IF(J15-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L16" s="6" t="e">
+        <f>IF(J16-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L17" s="6" t="e">
+        <f>IF(J17-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L18" s="6" t="e">
+        <f>IF(J18-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L19" s="6" t="e">
+        <f>IF(J19-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L20" s="6" t="e">
+        <f>IF(J20-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L21" s="6" t="e">
+        <f>IF(J21-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L22" s="6" t="e">
+        <f>IF(J22-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L23" s="6" t="e">
+        <f>IF(J23-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L24" s="6" t="e">
+        <f>IF(J24-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L25" s="6" t="e">
+        <f>IF(J25-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L26" s="6" t="e">
+        <f>IF(J26-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L27" s="6" t="e">
+        <f>IF(J27-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L28" s="6" t="e">
+        <f>IF(J28-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M28" s="7"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
+        <v>25</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L29" s="10" t="e">
+        <f>IF(J29-#REF!&lt;=0, "O", "X")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B3:N3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEF9F84-EC89-4DDB-BCC7-9EF33BC2CCF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>